--- a/biology/Botanique/Pois_de_senteur/Pois_de_senteur.xlsx
+++ b/biology/Botanique/Pois_de_senteur/Pois_de_senteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus odoratus
 Le Pois de senteur (Lathyrus odoratus) est une espèce de plante herbacée annuelle grimpante de la  famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique), originaire du sud-est de l'Italie et de la Sicile.
@@ -514,12 +526,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante herbacée annuelle, grimpante grâce à des vrilles, peut atteindre une hauteur de deux mètres.
 Les feuilles sont paripennées, munies de deux stipules à la base et prolongées en vrilles.
 Ses fleurs sont papilionacées, assez grandes et groupées en grappes axillaires.
-Les graines sont toxiques et provoquent le lathyrisme en cas d'absorption répétée, comme d'autres gesses[1].
+Les graines sont toxiques et provoquent le lathyrisme en cas d'absorption répétée, comme d'autres gesses.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreux cultivars du pois de senteur.[réf. nécessaire]
 </t>
